--- a/Lab 3/archivo_tradeview_2.xlsx
+++ b/Lab 3/archivo_tradeview_2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quintejo\Documents\Personal\ITESO\9no. Semestre\Microestructuras y Sistemas de Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\if702972\Documents\MyST\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B6CD9B5-16CC-4498-9882-939284D04917}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D19204-306F-4D6A-B076-046C1C8D6D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="184">
   <si>
     <t>Order</t>
   </si>
@@ -565,12 +565,24 @@
   </si>
   <si>
     <t>2019.09.25 15:24:35</t>
+  </si>
+  <si>
+    <t>sobre confianza</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>monto repetido igual o mayor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,8 +640,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{0F9B663F-C43A-49DD-9C8B-EB6644B8A60B}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,7 +682,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -938,30 +978,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="3.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" customWidth="1"/>
-    <col min="7" max="8" width="4.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="7" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.81640625" customWidth="1"/>
-    <col min="16" max="1025" width="9.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
+    <col min="12" max="15" width="7" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="1026" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1004,8 +1044,14 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>24316034</v>
       </c>
@@ -1048,8 +1094,13 @@
       <c r="N2" s="2">
         <v>17.920000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" s="2"/>
+      <c r="P2" s="5"/>
+      <c r="S2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>24334215</v>
       </c>
@@ -1092,8 +1143,12 @@
       <c r="N3" s="2">
         <v>-2.73</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" s="2"/>
+      <c r="S3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>24342155</v>
       </c>
@@ -1136,8 +1191,9 @@
       <c r="N4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>24373260</v>
       </c>
@@ -1180,8 +1236,9 @@
       <c r="N5" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>24392415</v>
       </c>
@@ -1224,8 +1281,9 @@
       <c r="N6" s="2">
         <v>-0.34</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>24392425</v>
       </c>
@@ -1268,8 +1326,9 @@
       <c r="N7" s="2">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>24392432</v>
       </c>
@@ -1312,8 +1371,9 @@
       <c r="N8" s="2">
         <v>21.35</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>24392440</v>
       </c>
@@ -1356,8 +1416,9 @@
       <c r="N9" s="2">
         <v>5.96</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>24392449</v>
       </c>
@@ -1400,8 +1461,9 @@
       <c r="N10" s="2">
         <v>-9.98</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>24392456</v>
       </c>
@@ -1444,8 +1506,9 @@
       <c r="N11" s="2">
         <v>-25.64</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>24416172</v>
       </c>
@@ -1488,8 +1551,9 @@
       <c r="N12" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>24416187</v>
       </c>
@@ -1532,8 +1596,9 @@
       <c r="N13" s="2">
         <v>-19.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>24417804</v>
       </c>
@@ -1576,8 +1641,9 @@
       <c r="N14" s="2">
         <v>-24.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>24432348</v>
       </c>
@@ -1620,8 +1686,9 @@
       <c r="N15" s="2">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>24464440</v>
       </c>
@@ -1664,8 +1731,9 @@
       <c r="N16" s="2">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>24464454</v>
       </c>
@@ -1708,8 +1776,9 @@
       <c r="N17" s="2">
         <v>-33.24</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>24471787</v>
       </c>
@@ -1752,8 +1821,9 @@
       <c r="N18" s="2">
         <v>-25.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>24518282</v>
       </c>
@@ -1796,8 +1866,9 @@
       <c r="N19" s="2">
         <v>-0.31</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>24518288</v>
       </c>
@@ -1840,8 +1911,9 @@
       <c r="N20" s="2">
         <v>-14.24</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>24518296</v>
       </c>
@@ -1884,8 +1956,9 @@
       <c r="N21" s="2">
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>24518303</v>
       </c>
@@ -1928,8 +2001,9 @@
       <c r="N22" s="2">
         <v>10.56</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>24518320</v>
       </c>
@@ -1972,8 +2046,9 @@
       <c r="N23" s="2">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>24518329</v>
       </c>
@@ -2016,8 +2091,9 @@
       <c r="N24" s="2">
         <v>-21.63</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24766404</v>
       </c>
@@ -2060,8 +2136,9 @@
       <c r="N25" s="2">
         <v>-0.57999999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24766410</v>
       </c>
@@ -2104,8 +2181,9 @@
       <c r="N26" s="2">
         <v>20.440000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>24778231</v>
       </c>
@@ -2148,8 +2226,9 @@
       <c r="N27" s="2">
         <v>-29.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>24850230</v>
       </c>
@@ -2192,8 +2271,9 @@
       <c r="N28" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>24853645</v>
       </c>
@@ -2236,8 +2316,9 @@
       <c r="N29" s="2">
         <v>39.06</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>24881355</v>
       </c>
@@ -2280,8 +2361,9 @@
       <c r="N30" s="2">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>24883777</v>
       </c>
@@ -2324,8 +2406,9 @@
       <c r="N31" s="2">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>24929591</v>
       </c>
@@ -2368,8 +2451,9 @@
       <c r="N32" s="2">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>25011739</v>
       </c>
@@ -2412,8 +2496,9 @@
       <c r="N33" s="2">
         <v>15.96</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25027858</v>
       </c>
@@ -2456,8 +2541,9 @@
       <c r="N34" s="2">
         <v>15.33</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>25042946</v>
       </c>
@@ -2500,8 +2586,9 @@
       <c r="N35" s="2">
         <v>7.32</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25043204</v>
       </c>
@@ -2544,8 +2631,9 @@
       <c r="N36" s="2">
         <v>7.14</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>25188529</v>
       </c>
@@ -2588,8 +2676,9 @@
       <c r="N37" s="2">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>25188553</v>
       </c>
@@ -2632,8 +2721,9 @@
       <c r="N38" s="2">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>25193432</v>
       </c>
@@ -2676,8 +2766,9 @@
       <c r="N39" s="2">
         <v>-24.56</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>25229583</v>
       </c>
@@ -2720,8 +2811,9 @@
       <c r="N40" s="2">
         <v>6.84</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>24311675</v>
       </c>
@@ -2764,8 +2856,9 @@
       <c r="N41" s="2">
         <v>-0.61</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>24311730</v>
       </c>
@@ -2808,8 +2901,9 @@
       <c r="N42" s="2">
         <v>-0.87</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>24311745</v>
       </c>
@@ -2852,8 +2946,9 @@
       <c r="N43" s="2">
         <v>-1.29</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>24315841</v>
       </c>
@@ -2896,8 +2991,9 @@
       <c r="N44" s="2">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>24315970</v>
       </c>
@@ -2940,8 +3036,9 @@
       <c r="N45" s="2">
         <v>-0.88</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>24318553</v>
       </c>
@@ -2984,8 +3081,9 @@
       <c r="N46" s="2">
         <v>16.07</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>24325707</v>
       </c>
@@ -3028,8 +3126,9 @@
       <c r="N47" s="2">
         <v>-1.32</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>24325723</v>
       </c>
@@ -3072,8 +3171,9 @@
       <c r="N48" s="2">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>24325740</v>
       </c>
@@ -3116,8 +3216,9 @@
       <c r="N49" s="2">
         <v>-2.0499999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>24427784</v>
       </c>
@@ -3160,8 +3261,9 @@
       <c r="N50" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24428006</v>
       </c>
@@ -3204,8 +3306,9 @@
       <c r="N51" s="2">
         <v>20.07</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>24464433</v>
       </c>
@@ -3248,8 +3351,9 @@
       <c r="N52" s="2">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>24464463</v>
       </c>
@@ -3292,8 +3396,9 @@
       <c r="N53" s="2">
         <v>-17.940000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>24518336</v>
       </c>
@@ -3336,8 +3441,9 @@
       <c r="N54" s="2">
         <v>-68</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>24582538</v>
       </c>
@@ -3380,8 +3486,9 @@
       <c r="N55" s="2">
         <v>29.11</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>24652480</v>
       </c>
@@ -3424,8 +3531,9 @@
       <c r="N56" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>24652485</v>
       </c>
@@ -3468,8 +3576,9 @@
       <c r="N57" s="2">
         <v>-12.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>24652590</v>
       </c>
@@ -3512,8 +3621,9 @@
       <c r="N58" s="2">
         <v>9.35</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>24660928</v>
       </c>
@@ -3556,8 +3666,9 @@
       <c r="N59" s="2">
         <v>-1.1200000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>24660946</v>
       </c>
@@ -3600,8 +3711,9 @@
       <c r="N60" s="2">
         <v>-0.97</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>24660956</v>
       </c>
@@ -3644,8 +3756,9 @@
       <c r="N61" s="2">
         <v>-0.72</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>24669796</v>
       </c>
@@ -3688,8 +3801,9 @@
       <c r="N62" s="2">
         <v>14.33</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>24669813</v>
       </c>
@@ -3732,8 +3846,9 @@
       <c r="N63" s="2">
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>24766416</v>
       </c>
@@ -3776,8 +3891,9 @@
       <c r="N64" s="2">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>24766426</v>
       </c>
@@ -3820,8 +3936,9 @@
       <c r="N65" s="2">
         <v>14.04</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>24769913</v>
       </c>
@@ -3864,8 +3981,9 @@
       <c r="N66" s="2">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>24778151</v>
       </c>
@@ -3908,8 +4026,9 @@
       <c r="N67" s="2">
         <v>8.4600000000000009</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>24803133</v>
       </c>
@@ -3952,8 +4071,9 @@
       <c r="N68" s="2">
         <v>21.78</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>24868147</v>
       </c>
@@ -3996,8 +4116,9 @@
       <c r="N69" s="2">
         <v>17.22</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>24898980</v>
       </c>
@@ -4040,8 +4161,9 @@
       <c r="N70" s="2">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>24898989</v>
       </c>
@@ -4084,8 +4206,9 @@
       <c r="N71" s="2">
         <v>16.32</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>24899012</v>
       </c>
@@ -4128,8 +4251,9 @@
       <c r="N72" s="2">
         <v>23.34</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>24910005</v>
       </c>
@@ -4172,8 +4296,9 @@
       <c r="N73" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>24940198</v>
       </c>
@@ -4216,8 +4341,9 @@
       <c r="N74" s="2">
         <v>-8.16</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>24955804</v>
       </c>
@@ -4260,8 +4386,9 @@
       <c r="N75" s="2">
         <v>13.62</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>25013774</v>
       </c>
@@ -4304,8 +4431,9 @@
       <c r="N76" s="2">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>25115634</v>
       </c>
@@ -4348,8 +4476,9 @@
       <c r="N77" s="2">
         <v>-4.88</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>25115653</v>
       </c>
@@ -4392,8 +4521,9 @@
       <c r="N78" s="2">
         <v>-3.16</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>25115668</v>
       </c>
@@ -4436,8 +4566,9 @@
       <c r="N79" s="2">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>25115680</v>
       </c>
@@ -4480,8 +4611,9 @@
       <c r="N80" s="2">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>25148355</v>
       </c>
@@ -4524,8 +4656,9 @@
       <c r="N81" s="2">
         <v>38.159999999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>25148480</v>
       </c>
@@ -4568,8 +4701,9 @@
       <c r="N82" s="2">
         <v>11.74</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>25148522</v>
       </c>
@@ -4612,8 +4746,9 @@
       <c r="N83" s="2">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>25159294</v>
       </c>
@@ -4656,8 +4791,9 @@
       <c r="N84" s="2">
         <v>21.96</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>25159303</v>
       </c>
@@ -4700,6 +4836,7 @@
       <c r="N85" s="2">
         <v>3.92</v>
       </c>
+      <c r="O85" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Lab 3/archivo_tradeview_2.xlsx
+++ b/Lab 3/archivo_tradeview_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\if702972\Documents\MyST\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D19204-306F-4D6A-B076-046C1C8D6D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF75BA8-4C3A-4A7C-A434-CB640E5B9BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
   <si>
     <t>Order</t>
   </si>
@@ -565,18 +565,6 @@
   </si>
   <si>
     <t>2019.09.25 15:24:35</t>
-  </si>
-  <si>
-    <t>sobre confianza</t>
-  </si>
-  <si>
-    <t>Semana</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>monto repetido igual o mayor</t>
   </si>
 </sst>
 </file>
@@ -978,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="O1" sqref="O1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,12 +984,11 @@
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="7" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="1026" width="9.140625" customWidth="1"/>
+    <col min="12" max="14" width="7" style="1" customWidth="1"/>
+    <col min="15" max="1012" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1044,14 +1031,8 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>24316034</v>
       </c>
@@ -1094,13 +1075,8 @@
       <c r="N2" s="2">
         <v>17.920000000000002</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="5"/>
-      <c r="S2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>24334215</v>
       </c>
@@ -1143,12 +1119,8 @@
       <c r="N3" s="2">
         <v>-2.73</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="S3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>24342155</v>
       </c>
@@ -1191,9 +1163,8 @@
       <c r="N4" s="2">
         <v>5</v>
       </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>24373260</v>
       </c>
@@ -1236,9 +1207,8 @@
       <c r="N5" s="2">
         <v>0.27</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>24392415</v>
       </c>
@@ -1281,9 +1251,8 @@
       <c r="N6" s="2">
         <v>-0.34</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>24392425</v>
       </c>
@@ -1326,9 +1295,8 @@
       <c r="N7" s="2">
         <v>-0.23</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>24392432</v>
       </c>
@@ -1371,9 +1339,8 @@
       <c r="N8" s="2">
         <v>21.35</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>24392440</v>
       </c>
@@ -1416,9 +1383,8 @@
       <c r="N9" s="2">
         <v>5.96</v>
       </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>24392449</v>
       </c>
@@ -1461,9 +1427,8 @@
       <c r="N10" s="2">
         <v>-9.98</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>24392456</v>
       </c>
@@ -1506,9 +1471,8 @@
       <c r="N11" s="2">
         <v>-25.64</v>
       </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>24416172</v>
       </c>
@@ -1551,9 +1515,8 @@
       <c r="N12" s="2">
         <v>-1</v>
       </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>24416187</v>
       </c>
@@ -1596,9 +1559,8 @@
       <c r="N13" s="2">
         <v>-19.75</v>
       </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>24417804</v>
       </c>
@@ -1641,9 +1603,8 @@
       <c r="N14" s="2">
         <v>-24.8</v>
       </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>24432348</v>
       </c>
@@ -1686,9 +1647,8 @@
       <c r="N15" s="2">
         <v>17.8</v>
       </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>24464440</v>
       </c>
@@ -1731,9 +1691,8 @@
       <c r="N16" s="2">
         <v>-0.4</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>24464454</v>
       </c>
@@ -1776,9 +1735,8 @@
       <c r="N17" s="2">
         <v>-33.24</v>
       </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>24471787</v>
       </c>
@@ -1821,9 +1779,8 @@
       <c r="N18" s="2">
         <v>-25.8</v>
       </c>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>24518282</v>
       </c>
@@ -1866,9 +1823,8 @@
       <c r="N19" s="2">
         <v>-0.31</v>
       </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>24518288</v>
       </c>
@@ -1911,9 +1867,8 @@
       <c r="N20" s="2">
         <v>-14.24</v>
       </c>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>24518296</v>
       </c>
@@ -1956,9 +1911,8 @@
       <c r="N21" s="2">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>24518303</v>
       </c>
@@ -2001,9 +1955,8 @@
       <c r="N22" s="2">
         <v>10.56</v>
       </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>24518320</v>
       </c>
@@ -2046,9 +1999,8 @@
       <c r="N23" s="2">
         <v>-0.25</v>
       </c>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>24518329</v>
       </c>
@@ -2091,9 +2043,8 @@
       <c r="N24" s="2">
         <v>-21.63</v>
       </c>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24766404</v>
       </c>
@@ -2136,9 +2087,8 @@
       <c r="N25" s="2">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24766410</v>
       </c>
@@ -2181,9 +2131,8 @@
       <c r="N26" s="2">
         <v>20.440000000000001</v>
       </c>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>24778231</v>
       </c>
@@ -2226,9 +2175,8 @@
       <c r="N27" s="2">
         <v>-29.39</v>
       </c>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>24850230</v>
       </c>
@@ -2271,9 +2219,8 @@
       <c r="N28" s="2">
         <v>43</v>
       </c>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>24853645</v>
       </c>
@@ -2316,9 +2263,8 @@
       <c r="N29" s="2">
         <v>39.06</v>
       </c>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>24881355</v>
       </c>
@@ -2361,9 +2307,8 @@
       <c r="N30" s="2">
         <v>45.6</v>
       </c>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>24883777</v>
       </c>
@@ -2406,9 +2351,8 @@
       <c r="N31" s="2">
         <v>8.4</v>
       </c>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>24929591</v>
       </c>
@@ -2451,9 +2395,8 @@
       <c r="N32" s="2">
         <v>5.52</v>
       </c>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>25011739</v>
       </c>
@@ -2496,9 +2439,8 @@
       <c r="N33" s="2">
         <v>15.96</v>
       </c>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25027858</v>
       </c>
@@ -2541,9 +2483,8 @@
       <c r="N34" s="2">
         <v>15.33</v>
       </c>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>25042946</v>
       </c>
@@ -2586,9 +2527,8 @@
       <c r="N35" s="2">
         <v>7.32</v>
       </c>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25043204</v>
       </c>
@@ -2631,9 +2571,8 @@
       <c r="N36" s="2">
         <v>7.14</v>
       </c>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>25188529</v>
       </c>
@@ -2676,9 +2615,8 @@
       <c r="N37" s="2">
         <v>6.8</v>
       </c>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>25188553</v>
       </c>
@@ -2721,9 +2659,8 @@
       <c r="N38" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>25193432</v>
       </c>
@@ -2766,9 +2703,8 @@
       <c r="N39" s="2">
         <v>-24.56</v>
       </c>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>25229583</v>
       </c>
@@ -2811,9 +2747,8 @@
       <c r="N40" s="2">
         <v>6.84</v>
       </c>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>24311675</v>
       </c>
@@ -2856,9 +2791,8 @@
       <c r="N41" s="2">
         <v>-0.61</v>
       </c>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>24311730</v>
       </c>
@@ -2901,9 +2835,8 @@
       <c r="N42" s="2">
         <v>-0.87</v>
       </c>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>24311745</v>
       </c>
@@ -2946,9 +2879,8 @@
       <c r="N43" s="2">
         <v>-1.29</v>
       </c>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>24315841</v>
       </c>
@@ -2991,9 +2923,8 @@
       <c r="N44" s="2">
         <v>1.32</v>
       </c>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>24315970</v>
       </c>
@@ -3036,9 +2967,8 @@
       <c r="N45" s="2">
         <v>-0.88</v>
       </c>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>24318553</v>
       </c>
@@ -3081,9 +3011,8 @@
       <c r="N46" s="2">
         <v>16.07</v>
       </c>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>24325707</v>
       </c>
@@ -3126,9 +3055,8 @@
       <c r="N47" s="2">
         <v>-1.32</v>
       </c>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>24325723</v>
       </c>
@@ -3171,9 +3099,8 @@
       <c r="N48" s="2">
         <v>-0.68</v>
       </c>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>24325740</v>
       </c>
@@ -3216,9 +3143,8 @@
       <c r="N49" s="2">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>24427784</v>
       </c>
@@ -3261,9 +3187,8 @@
       <c r="N50" s="2">
         <v>0.34</v>
       </c>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24428006</v>
       </c>
@@ -3306,9 +3231,8 @@
       <c r="N51" s="2">
         <v>20.07</v>
       </c>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>24464433</v>
       </c>
@@ -3351,9 +3275,8 @@
       <c r="N52" s="2">
         <v>-0.26</v>
       </c>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>24464463</v>
       </c>
@@ -3396,9 +3319,8 @@
       <c r="N53" s="2">
         <v>-17.940000000000001</v>
       </c>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>24518336</v>
       </c>
@@ -3441,9 +3363,8 @@
       <c r="N54" s="2">
         <v>-68</v>
       </c>
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>24582538</v>
       </c>
@@ -3486,9 +3407,8 @@
       <c r="N55" s="2">
         <v>29.11</v>
       </c>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>24652480</v>
       </c>
@@ -3531,9 +3451,8 @@
       <c r="N56" s="2">
         <v>3</v>
       </c>
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>24652485</v>
       </c>
@@ -3576,9 +3495,8 @@
       <c r="N57" s="2">
         <v>-12.1</v>
       </c>
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>24652590</v>
       </c>
@@ -3621,9 +3539,8 @@
       <c r="N58" s="2">
         <v>9.35</v>
       </c>
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>24660928</v>
       </c>
@@ -3666,9 +3583,8 @@
       <c r="N59" s="2">
         <v>-1.1200000000000001</v>
       </c>
-      <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>24660946</v>
       </c>
@@ -3711,9 +3627,8 @@
       <c r="N60" s="2">
         <v>-0.97</v>
       </c>
-      <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>24660956</v>
       </c>
@@ -3756,9 +3671,8 @@
       <c r="N61" s="2">
         <v>-0.72</v>
       </c>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>24669796</v>
       </c>
@@ -3801,9 +3715,8 @@
       <c r="N62" s="2">
         <v>14.33</v>
       </c>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>24669813</v>
       </c>
@@ -3846,9 +3759,8 @@
       <c r="N63" s="2">
         <v>-4.5</v>
       </c>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>24766416</v>
       </c>
@@ -3891,9 +3803,8 @@
       <c r="N64" s="2">
         <v>-0.26</v>
       </c>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>24766426</v>
       </c>
@@ -3936,9 +3847,8 @@
       <c r="N65" s="2">
         <v>14.04</v>
       </c>
-      <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>24769913</v>
       </c>
@@ -3981,9 +3891,8 @@
       <c r="N66" s="2">
         <v>2.14</v>
       </c>
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>24778151</v>
       </c>
@@ -4026,9 +3935,8 @@
       <c r="N67" s="2">
         <v>8.4600000000000009</v>
       </c>
-      <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>24803133</v>
       </c>
@@ -4071,9 +3979,8 @@
       <c r="N68" s="2">
         <v>21.78</v>
       </c>
-      <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>24868147</v>
       </c>
@@ -4116,9 +4023,8 @@
       <c r="N69" s="2">
         <v>17.22</v>
       </c>
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>24898980</v>
       </c>
@@ -4161,9 +4067,8 @@
       <c r="N70" s="2">
         <v>3.42</v>
       </c>
-      <c r="O70" s="2"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>24898989</v>
       </c>
@@ -4206,9 +4111,8 @@
       <c r="N71" s="2">
         <v>16.32</v>
       </c>
-      <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>24899012</v>
       </c>
@@ -4251,9 +4155,8 @@
       <c r="N72" s="2">
         <v>23.34</v>
       </c>
-      <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>24910005</v>
       </c>
@@ -4296,9 +4199,8 @@
       <c r="N73" s="2">
         <v>18</v>
       </c>
-      <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>24940198</v>
       </c>
@@ -4341,9 +4243,8 @@
       <c r="N74" s="2">
         <v>-8.16</v>
       </c>
-      <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>24955804</v>
       </c>
@@ -4386,9 +4287,8 @@
       <c r="N75" s="2">
         <v>13.62</v>
       </c>
-      <c r="O75" s="2"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>25013774</v>
       </c>
@@ -4431,9 +4331,8 @@
       <c r="N76" s="2">
         <v>1.56</v>
       </c>
-      <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>25115634</v>
       </c>
@@ -4476,9 +4375,8 @@
       <c r="N77" s="2">
         <v>-4.88</v>
       </c>
-      <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>25115653</v>
       </c>
@@ -4521,9 +4419,8 @@
       <c r="N78" s="2">
         <v>-3.16</v>
       </c>
-      <c r="O78" s="2"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>25115668</v>
       </c>
@@ -4566,9 +4463,8 @@
       <c r="N79" s="2">
         <v>1.35</v>
       </c>
-      <c r="O79" s="2"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>25115680</v>
       </c>
@@ -4611,9 +4507,8 @@
       <c r="N80" s="2">
         <v>0.88</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>25148355</v>
       </c>
@@ -4656,9 +4551,8 @@
       <c r="N81" s="2">
         <v>38.159999999999997</v>
       </c>
-      <c r="O81" s="2"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>25148480</v>
       </c>
@@ -4701,9 +4595,8 @@
       <c r="N82" s="2">
         <v>11.74</v>
       </c>
-      <c r="O82" s="2"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>25148522</v>
       </c>
@@ -4746,9 +4639,8 @@
       <c r="N83" s="2">
         <v>6.2</v>
       </c>
-      <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>25159294</v>
       </c>
@@ -4791,9 +4683,8 @@
       <c r="N84" s="2">
         <v>21.96</v>
       </c>
-      <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>25159303</v>
       </c>
@@ -4836,7 +4727,6 @@
       <c r="N85" s="2">
         <v>3.92</v>
       </c>
-      <c r="O85" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
